--- a/frontend/web/upload/template.xlsx
+++ b/frontend/web/upload/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26900" yWindow="680" windowWidth="11400" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="11640" yWindow="980" windowWidth="23100" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list_1" sheetId="1" r:id="rId1"/>
@@ -27,28 +27,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>units</t>
   </si>
   <si>
-    <t>price</t>
+    <t>Артикул</t>
   </si>
   <si>
-    <t>category</t>
+    <t>Продукт</t>
+  </si>
+  <si>
+    <t>Цена</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,16 +53,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +89,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -356,32 +390,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/upload/template.xlsx
+++ b/frontend/web/upload/template.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="980" windowWidth="23100" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="9480" yWindow="2560" windowWidth="26600" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list_1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>units</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Артикул</t>
   </si>
@@ -40,12 +40,21 @@
   <si>
     <t>Цена</t>
   </si>
+  <si>
+    <t>Кратность</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -54,8 +63,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,34 +119,59 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3B1500"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,34 +443,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="23.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/upload/template.xlsx
+++ b/frontend/web/upload/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/f_keeper.ru/frontend/web/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2560" windowWidth="26600" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="9480" yWindow="1460" windowWidth="26600" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list_1" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Артикул</t>
   </si>
   <si>
-    <t>Продукт</t>
-  </si>
-  <si>
     <t>Цена</t>
   </si>
   <si>
@@ -45,6 +42,12 @@
   </si>
   <si>
     <t>Категория</t>
+  </si>
+  <si>
+    <t>Комментарий к товару</t>
+  </si>
+  <si>
+    <t>Наименование</t>
   </si>
 </sst>
 </file>
@@ -443,37 +446,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="54" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/frontend/web/upload/template.xlsx
+++ b/frontend/web/upload/template.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="1460" windowWidth="26600" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="7000" yWindow="860" windowWidth="26600" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Артикул</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Кратность</t>
-  </si>
-  <si>
-    <t>Категория</t>
   </si>
   <si>
     <t>Комментарий к товару</t>
@@ -446,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -459,17 +456,16 @@
     <col min="2" max="2" width="37.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="54" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="54" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -480,9 +476,6 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/frontend/web/upload/template.xlsx
+++ b/frontend/web/upload/template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Артикул</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Единица измерения </t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -158,6 +161,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -454,13 +460,14 @@
   <cols>
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="54" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17" style="7" customWidth="1"/>
+    <col min="6" max="6" width="54" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +480,10 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
